--- a/tp2/informe/pruebas.xlsx
+++ b/tp2/informe/pruebas.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2 (2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10bis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -101,7 +101,7 @@
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
@@ -112,7 +112,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -702,55 +701,56 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="C1" s="1">
-        <f>MAX(D2:M2)</f>
+        <f t="shared" ref="C1:C8" si="0">MAX(D2:M2)</f>
         <v>380</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
-        <v>10</v>
+        <f>A3+1</f>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>41</v>
       </c>
       <c r="C2" s="1">
-        <f>MAX(D3:M3)</f>
+        <f t="shared" si="0"/>
         <v>342</v>
       </c>
       <c r="D2" s="3">
-        <f>MIN($B2,D$13)+C3</f>
+        <f t="shared" ref="D2:D8" si="1">MIN($B2,D$13)+C3</f>
         <v>350</v>
       </c>
       <c r="E2" s="3">
-        <f>MIN($B2,E$13)+D3</f>
+        <f t="shared" ref="E2:E8" si="2">MIN($B2,E$13)+D3</f>
         <v>342</v>
       </c>
       <c r="F2" s="3">
-        <f>MIN($B2,F$13)+E3</f>
+        <f t="shared" ref="F2:F8" si="3">MIN($B2,F$13)+E3</f>
         <v>356</v>
       </c>
       <c r="G2" s="3">
-        <f>MIN($B2,G$13)+F3</f>
+        <f t="shared" ref="G2:G8" si="4">MIN($B2,G$13)+F3</f>
         <v>365</v>
       </c>
       <c r="H2" s="3">
-        <f>MIN($B2,H$13)+G3</f>
+        <f t="shared" ref="H2:H7" si="5">MIN($B2,H$13)+G3</f>
         <v>364</v>
       </c>
       <c r="I2" s="4">
-        <f>MIN($B2,I$13)+H3</f>
+        <f t="shared" ref="I2:I6" si="6">MIN($B2,I$13)+H3</f>
         <v>380</v>
       </c>
       <c r="J2" s="3">
-        <f>MIN($B2,J$13)+I3</f>
+        <f t="shared" ref="J2:J5" si="7">MIN($B2,J$13)+I3</f>
         <v>302</v>
       </c>
       <c r="K2" s="3">
-        <f>MIN($B2,K$13)+J3</f>
+        <f t="shared" ref="K2:K4" si="8">MIN($B2,K$13)+J3</f>
         <v>326</v>
       </c>
       <c r="L2" s="3">
-        <f>MIN($B2,L$13)+K3</f>
+        <f t="shared" ref="L2:L3" si="9">MIN($B2,L$13)+K3</f>
         <v>254</v>
       </c>
       <c r="M2" s="3">
@@ -760,241 +760,248 @@
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
-        <v>9</v>
+        <f>A4+1</f>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>33</v>
       </c>
       <c r="C3" s="1">
-        <f>MAX(D4:M4)</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="D3" s="3">
-        <f>MIN($B3,D$13)+C4</f>
+        <f t="shared" si="1"/>
         <v>301</v>
       </c>
       <c r="E3" s="3">
-        <f>MIN($B3,E$13)+D4</f>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
       <c r="F3" s="3">
-        <f>MIN($B3,F$13)+E4</f>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
       <c r="G3" s="3">
-        <f>MIN($B3,G$13)+F4</f>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="H3" s="4">
-        <f>MIN($B3,H$13)+G4</f>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="I3" s="3">
-        <f>MIN($B3,I$13)+H4</f>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="J3" s="3">
-        <f>MIN($B3,J$13)+I4</f>
+        <f t="shared" si="7"/>
         <v>309</v>
       </c>
       <c r="K3" s="3">
-        <f>MIN($B3,K$13)+J4</f>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="L3" s="3">
-        <f>MIN($B3,L$13)+K4</f>
+        <f t="shared" si="9"/>
         <v>237</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
-        <v>8</v>
+        <f>A5+1</f>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>64</v>
       </c>
       <c r="C4" s="1">
-        <f>MAX(D5:M5)</f>
+        <f t="shared" si="0"/>
         <v>268</v>
       </c>
       <c r="D4" s="3">
-        <f>MIN($B4,D$13)+C5</f>
+        <f t="shared" si="1"/>
         <v>282</v>
       </c>
       <c r="E4" s="3">
-        <f>MIN($B4,E$13)+D5</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="F4" s="3">
-        <f>MIN($B4,F$13)+E5</f>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="G4" s="4">
-        <f>MIN($B4,G$13)+F5</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="H4" s="3">
-        <f>MIN($B4,H$13)+G5</f>
+        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="I4" s="3">
-        <f>MIN($B4,I$13)+H5</f>
+        <f t="shared" si="6"/>
         <v>286</v>
       </c>
       <c r="J4" s="3">
-        <f>MIN($B4,J$13)+I5</f>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="K4" s="3">
-        <f>MIN($B4,K$13)+J5</f>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
-        <v>7</v>
+        <f>A6+1</f>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>65</v>
       </c>
       <c r="C5" s="1">
-        <f>MAX(D6:M6)</f>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="D5" s="3">
-        <f>MIN($B5,D$13)+C6</f>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="E5" s="3">
-        <f>MIN($B5,E$13)+D6</f>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="F5" s="4">
-        <f>MIN($B5,F$13)+E6</f>
+        <f t="shared" si="3"/>
         <v>268</v>
       </c>
       <c r="G5" s="3">
-        <f>MIN($B5,G$13)+F6</f>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
       <c r="H5" s="3">
-        <f>MIN($B5,H$13)+G6</f>
+        <f t="shared" si="5"/>
         <v>248</v>
       </c>
       <c r="I5" s="3">
-        <f>MIN($B5,I$13)+H6</f>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="J5" s="3">
-        <f>MIN($B5,J$13)+I6</f>
+        <f t="shared" si="7"/>
         <v>207</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
-        <v>6</v>
+        <f>A7+1</f>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>76</v>
       </c>
       <c r="C6" s="1">
-        <f>MAX(D7:M7)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="D6" s="3">
-        <f>MIN($B6,D$13)+C7</f>
+        <f t="shared" si="1"/>
         <v>181</v>
       </c>
       <c r="E6" s="4">
-        <f>MIN($B6,E$13)+D7</f>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
       <c r="F6" s="3">
-        <f>MIN($B6,F$13)+E7</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="G6" s="3">
-        <f>MIN($B6,G$13)+F7</f>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="H6" s="3">
-        <f>MIN($B6,H$13)+G7</f>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="I6" s="3">
-        <f>MIN($B6,I$13)+H7</f>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
-        <v>5</v>
+        <f>A8+1</f>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>59</v>
       </c>
       <c r="C7" s="1">
-        <f>MAX(D8:M8)</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="D7" s="4">
-        <f>MIN($B7,D$13)+C8</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="E7">
-        <f>MIN($B7,E$13)+D8</f>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="F7" s="3">
-        <f>MIN($B7,F$13)+E8</f>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="G7" s="3">
-        <f>MIN($B7,G$13)+F8</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="H7" s="3">
-        <f>MIN($B7,H$13)+G8</f>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
-        <v>4</v>
+        <f>A9+1</f>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>19</v>
       </c>
       <c r="C8" s="1">
-        <f>MAX(D9:M9)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="D8" s="3">
-        <f>MIN($B8,D$13)+C9</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="E8" s="3">
-        <f>MIN($B8,E$13)+D9</f>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="F8" s="3">
-        <f>MIN($B8,F$13)+E9</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="G8" s="3">
-        <f>MIN($B8,G$13)+F9</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
-        <v>3</v>
+        <f>A10+1</f>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>78</v>
       </c>
       <c r="C9" s="1">
-        <f>MAX(D10:M10)</f>
+        <f t="shared" ref="C9:C11" si="10">MAX(D10:M10)</f>
         <v>38</v>
       </c>
       <c r="D9" s="4">
@@ -1012,13 +1019,14 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
-        <v>2</v>
+        <f>A11+1</f>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <f>MAX(D11:M11)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="D10" s="3">
@@ -1032,13 +1040,13 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2">
         <v>36</v>
       </c>
       <c r="C11" s="1">
-        <f>MAX(D12:M12)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D11" s="4">
@@ -1048,18 +1056,18 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -1073,16 +1081,16 @@
       <c r="E13" s="2">
         <v>61</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>49</v>
       </c>
       <c r="G13" s="2">
         <v>41</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>40</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>38</v>
       </c>
       <c r="J13" s="2">
@@ -1103,47 +1111,50 @@
         <v>5</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14+1</f>
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="3">
+        <f>E14+1</f>
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="3">
+        <f>F14+1</f>
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="3">
+        <f>G14+1</f>
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="3">
+        <f>H14+1</f>
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="3">
+        <f>I14+1</f>
         <v>6</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="3">
+        <f>J14+1</f>
         <v>7</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="3">
+        <f>K14+1</f>
         <v>8</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="3">
+        <f>L14+1</f>
         <v>9</v>
       </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="D15"/>
-    </row>
+    </row>
+    <row r="15" ht="14.25"/>
     <row r="16" ht="14.25"/>
-    <row r="17" ht="14.25">
-      <c r="D17"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="D18"/>
-    </row>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
     <row r="19" ht="14.25"/>
     <row r="20" ht="14.25"/>
     <row r="21" ht="14.25"/>
@@ -1162,7 +1173,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1173,55 +1184,55 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="C1" s="1">
-        <f>MAX(D2:M2)</f>
+        <f t="shared" ref="C1:C8" si="11">MAX(D2:M2)</f>
         <v>523</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>65</v>
       </c>
       <c r="C2" s="1">
-        <f>MAX(D3:M3)</f>
+        <f t="shared" si="11"/>
         <v>464</v>
       </c>
       <c r="D2" s="3">
-        <f>MIN($B2,D$13)+C3</f>
+        <f t="shared" ref="D2:D8" si="12">MIN($B2,D$13)+C3</f>
         <v>481</v>
       </c>
       <c r="E2" s="3">
-        <f>MIN($B2,E$13)+D3</f>
+        <f t="shared" ref="E2:E8" si="13">MIN($B2,E$13)+D3</f>
         <v>469</v>
       </c>
       <c r="F2" s="3">
-        <f>MIN($B2,F$13)+E3</f>
+        <f t="shared" ref="F2:F8" si="14">MIN($B2,F$13)+E3</f>
         <v>520</v>
       </c>
       <c r="G2" s="4">
-        <f>MIN($B2,G$13)+F3</f>
+        <f t="shared" ref="G2:G8" si="15">MIN($B2,G$13)+F3</f>
         <v>523</v>
       </c>
       <c r="H2" s="3">
-        <f>MIN($B2,H$13)+G3</f>
+        <f t="shared" ref="H2:H7" si="16">MIN($B2,H$13)+G3</f>
         <v>490</v>
       </c>
       <c r="I2" s="3">
-        <f>MIN($B2,I$13)+H3</f>
+        <f t="shared" ref="I2:I6" si="17">MIN($B2,I$13)+H3</f>
         <v>501</v>
       </c>
       <c r="J2" s="3">
-        <f>MIN($B2,J$13)+I3</f>
+        <f t="shared" ref="J2:J5" si="18">MIN($B2,J$13)+I3</f>
         <v>452</v>
       </c>
       <c r="K2" s="3">
-        <f>MIN($B2,K$13)+J3</f>
+        <f t="shared" ref="K2:K4" si="19">MIN($B2,K$13)+J3</f>
         <v>391</v>
       </c>
       <c r="L2" s="3">
-        <f>MIN($B2,L$13)+K3</f>
+        <f t="shared" ref="L2:L3" si="20">MIN($B2,L$13)+K3</f>
         <v>369</v>
       </c>
       <c r="M2" s="3">
@@ -1231,242 +1242,241 @@
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>48</v>
       </c>
       <c r="C3" s="1">
-        <f>MAX(D4:M4)</f>
+        <f t="shared" si="11"/>
         <v>416</v>
       </c>
       <c r="D3" s="3">
-        <f>MIN($B3,D$13)+C4</f>
+        <f t="shared" si="12"/>
         <v>404</v>
       </c>
       <c r="E3" s="3">
-        <f>MIN($B3,E$13)+D4</f>
+        <f t="shared" si="13"/>
         <v>455</v>
       </c>
       <c r="F3" s="4">
-        <f>MIN($B3,F$13)+E4</f>
+        <f t="shared" si="14"/>
         <v>458</v>
       </c>
       <c r="G3" s="3">
-        <f>MIN($B3,G$13)+F4</f>
+        <f t="shared" si="15"/>
         <v>426</v>
       </c>
       <c r="H3" s="3">
-        <f>MIN($B3,H$13)+G4</f>
+        <f t="shared" si="16"/>
         <v>464</v>
       </c>
       <c r="I3" s="3">
-        <f>MIN($B3,I$13)+H4</f>
+        <f t="shared" si="17"/>
         <v>429</v>
       </c>
       <c r="J3" s="3">
-        <f>MIN($B3,J$13)+I4</f>
+        <f t="shared" si="18"/>
         <v>369</v>
       </c>
       <c r="K3" s="3">
-        <f>MIN($B3,K$13)+J4</f>
+        <f t="shared" si="19"/>
         <v>347</v>
       </c>
       <c r="L3" s="3">
-        <f>MIN($B3,L$13)+K4</f>
+        <f t="shared" si="20"/>
         <v>400</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>77</v>
       </c>
       <c r="C4" s="1">
-        <f>MAX(D5:M5)</f>
+        <f t="shared" si="11"/>
         <v>356</v>
       </c>
       <c r="D4" s="3">
-        <f>MIN($B4,D$13)+C5</f>
+        <f t="shared" si="12"/>
         <v>407</v>
       </c>
       <c r="E4" s="4">
-        <f>MIN($B4,E$13)+D5</f>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
       <c r="F4" s="3">
-        <f>MIN($B4,F$13)+E5</f>
+        <f t="shared" si="14"/>
         <v>378</v>
       </c>
       <c r="G4" s="3">
-        <f>MIN($B4,G$13)+F5</f>
+        <f t="shared" si="15"/>
         <v>416</v>
       </c>
       <c r="H4" s="3">
-        <f>MIN($B4,H$13)+G5</f>
+        <f t="shared" si="16"/>
         <v>392</v>
       </c>
       <c r="I4" s="3">
-        <f>MIN($B4,I$13)+H5</f>
+        <f t="shared" si="17"/>
         <v>346</v>
       </c>
       <c r="J4" s="3">
-        <f>MIN($B4,J$13)+I5</f>
+        <f t="shared" si="18"/>
         <v>325</v>
       </c>
       <c r="K4" s="3">
-        <f>MIN($B4,K$13)+J5</f>
+        <f t="shared" si="19"/>
         <v>378</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>44</v>
       </c>
       <c r="C5" s="1">
-        <f>MAX(D6:M6)</f>
+        <f t="shared" si="11"/>
         <v>333</v>
       </c>
       <c r="D5" s="4">
-        <f>MIN($B5,D$13)+C6</f>
+        <f t="shared" si="12"/>
         <v>341</v>
       </c>
       <c r="E5" s="3">
-        <f>MIN($B5,E$13)+D6</f>
+        <f t="shared" si="13"/>
         <v>313</v>
       </c>
       <c r="F5" s="3">
-        <f>MIN($B5,F$13)+E6</f>
+        <f t="shared" si="14"/>
         <v>351</v>
       </c>
       <c r="G5" s="3">
-        <f>MIN($B5,G$13)+F6</f>
+        <f t="shared" si="15"/>
         <v>328</v>
       </c>
       <c r="H5" s="3">
-        <f>MIN($B5,H$13)+G6</f>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
       <c r="I5" s="3">
-        <f>MIN($B5,I$13)+H6</f>
+        <f t="shared" si="17"/>
         <v>302</v>
       </c>
       <c r="J5" s="3">
-        <f>MIN($B5,J$13)+I6</f>
+        <f t="shared" si="18"/>
         <v>356</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>36</v>
       </c>
       <c r="C6" s="1">
-        <f>MAX(D7:M7)</f>
+        <f t="shared" si="11"/>
         <v>297</v>
       </c>
       <c r="D6" s="3">
-        <f>MIN($B6,D$13)+C7</f>
+        <f t="shared" si="12"/>
         <v>269</v>
       </c>
       <c r="E6" s="3">
-        <f>MIN($B6,E$13)+D7</f>
+        <f t="shared" si="13"/>
         <v>307</v>
       </c>
       <c r="F6" s="3">
-        <f>MIN($B6,F$13)+E7</f>
+        <f t="shared" si="14"/>
         <v>284</v>
       </c>
       <c r="G6" s="3">
-        <f>MIN($B6,G$13)+F7</f>
+        <f t="shared" si="15"/>
         <v>265</v>
       </c>
       <c r="H6" s="3">
-        <f>MIN($B6,H$13)+G7</f>
+        <f t="shared" si="16"/>
         <v>265</v>
       </c>
       <c r="I6" s="3">
-        <f>MIN($B6,I$13)+H7</f>
+        <f t="shared" si="17"/>
         <v>333</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>78</v>
       </c>
       <c r="C7" s="1">
-        <f>MAX(D8:M8)</f>
+        <f t="shared" si="11"/>
         <v>233</v>
       </c>
       <c r="D7" s="3">
-        <f>MIN($B7,D$13)+C8</f>
+        <f t="shared" si="12"/>
         <v>271</v>
       </c>
       <c r="E7">
-        <f>MIN($B7,E$13)+D8</f>
+        <f t="shared" si="13"/>
         <v>248</v>
       </c>
       <c r="F7" s="3">
-        <f>MIN($B7,F$13)+E8</f>
+        <f t="shared" si="14"/>
         <v>229</v>
       </c>
       <c r="G7" s="3">
-        <f>MIN($B7,G$13)+F8</f>
+        <f t="shared" si="15"/>
         <v>229</v>
       </c>
       <c r="H7" s="4">
-        <f>MIN($B7,H$13)+G8</f>
+        <f t="shared" si="16"/>
         <v>297</v>
       </c>
-      <c r="I7"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>36</v>
       </c>
       <c r="C8" s="1">
-        <f>MAX(D9:M9)</f>
+        <f t="shared" si="11"/>
         <v>197</v>
       </c>
       <c r="D8" s="3">
-        <f>MIN($B8,D$13)+C9</f>
+        <f t="shared" si="12"/>
         <v>179</v>
       </c>
       <c r="E8" s="3">
-        <f>MIN($B8,E$13)+D9</f>
+        <f t="shared" si="13"/>
         <v>164</v>
       </c>
       <c r="F8" s="3">
-        <f>MIN($B8,F$13)+E9</f>
+        <f t="shared" si="14"/>
         <v>164</v>
       </c>
       <c r="G8" s="4">
-        <f>MIN($B8,G$13)+F9</f>
+        <f t="shared" si="15"/>
         <v>233</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <f>MAX(D10:M10)</f>
+        <f t="shared" ref="C9:C11" si="21">MAX(D10:M10)</f>
         <v>143</v>
       </c>
       <c r="D9" s="3">
@@ -1484,13 +1494,13 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>77</v>
       </c>
       <c r="C10" s="1">
-        <f>MAX(D11:M11)</f>
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
       <c r="D10" s="3">
@@ -1504,35 +1514,34 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2">
         <v>75</v>
       </c>
       <c r="C11" s="1">
-        <f>MAX(D12:M12)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f>MIN($B11,D$13)+C13</f>
         <v>74</v>
       </c>
-      <c r="E11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -1546,16 +1555,16 @@
       <c r="E13" s="2">
         <v>69</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>65</v>
       </c>
       <c r="G13" s="2">
         <v>65</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>37</v>
       </c>
       <c r="J13" s="2">
@@ -1577,81 +1586,60 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>D14+1</f>
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f>E14+1</f>
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <f>F14+1</f>
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <f>G14+1</f>
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
+        <f>H14+1</f>
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
+        <f>I14+1</f>
         <v>6</v>
       </c>
-      <c r="J14">
+      <c r="K14">
+        <f>J14+1</f>
         <v>7</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <f>K14+1</f>
         <v>8</v>
       </c>
-      <c r="L14">
+      <c r="M14">
+        <f>L14+1</f>
         <v>9</v>
       </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="D15"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="D16"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="D17"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="D18"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="D19"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="D20"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="D21"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="D22"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="D23"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="D24"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="D25"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="D26"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="D27"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="D28"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="D29"/>
-    </row>
+    </row>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25"/>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25"/>
     <row r="30" ht="14.25"/>
     <row r="31" ht="14.25"/>
     <row r="32" ht="14.25"/>

--- a/tp2/informe/pruebas.xlsx
+++ b/tp2/informe/pruebas.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="10bis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10 (2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>4+1</t>
   </si>
@@ -33,6 +34,24 @@
   </si>
   <si>
     <t>s→</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>dias_trabajo_continuo</t>
+  </si>
+  <si>
+    <t>ganancia_trabajo_continuo</t>
+  </si>
+  <si>
+    <t>ganancia_renovado</t>
   </si>
 </sst>
 </file>
@@ -101,7 +120,7 @@
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
@@ -118,6 +137,14 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +734,7 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
-        <f>A3+1</f>
+        <f t="shared" ref="A2:A8" si="1">A3+1</f>
         <v>9</v>
       </c>
       <c r="B2" s="2">
@@ -718,39 +745,39 @@
         <v>342</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D8" si="1">MIN($B2,D$13)+C3</f>
+        <f t="shared" ref="D2:D8" si="2">MIN($B2,D$13)+C3</f>
         <v>350</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E8" si="2">MIN($B2,E$13)+D3</f>
+        <f t="shared" ref="E2:E8" si="3">MIN($B2,E$13)+D3</f>
         <v>342</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F8" si="3">MIN($B2,F$13)+E3</f>
+        <f t="shared" ref="F2:F8" si="4">MIN($B2,F$13)+E3</f>
         <v>356</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G8" si="4">MIN($B2,G$13)+F3</f>
+        <f t="shared" ref="G2:G8" si="5">MIN($B2,G$13)+F3</f>
         <v>365</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H7" si="5">MIN($B2,H$13)+G3</f>
+        <f t="shared" ref="H2:H7" si="6">MIN($B2,H$13)+G3</f>
         <v>364</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I6" si="6">MIN($B2,I$13)+H3</f>
+        <f t="shared" ref="I2:I6" si="7">MIN($B2,I$13)+H3</f>
         <v>380</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J5" si="7">MIN($B2,J$13)+I3</f>
+        <f t="shared" ref="J2:J5" si="8">MIN($B2,J$13)+I3</f>
         <v>302</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K4" si="8">MIN($B2,K$13)+J3</f>
+        <f t="shared" ref="K2:K4" si="9">MIN($B2,K$13)+J3</f>
         <v>326</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L3" si="9">MIN($B2,L$13)+K3</f>
+        <f t="shared" ref="L2:L3" si="10">MIN($B2,L$13)+K3</f>
         <v>254</v>
       </c>
       <c r="M2" s="3">
@@ -760,7 +787,7 @@
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
-        <f>A4+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B3" s="2">
@@ -771,45 +798,45 @@
         <v>309</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>301</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="3"/>
-        <v>324</v>
-      </c>
-      <c r="G3" s="3">
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
+      <c r="G3" s="3">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
       <c r="H3" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>279</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>309</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
-        <f>A5+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B4" s="2">
@@ -820,41 +847,41 @@
         <v>268</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>282</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="2"/>
-        <v>291</v>
-      </c>
-      <c r="F4" s="3">
         <f t="shared" si="3"/>
         <v>291</v>
       </c>
+      <c r="F4" s="3">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
       <c r="G4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>309</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>246</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>286</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-      <c r="K4" s="3">
         <f t="shared" si="8"/>
         <v>224</v>
       </c>
+      <c r="K4" s="3">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
-        <f>A6+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B5" s="2">
@@ -865,37 +892,37 @@
         <v>219</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>206</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>248</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>207</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
-        <f>A7+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -906,33 +933,33 @@
         <v>167</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B7" s="2">
@@ -943,29 +970,29 @@
         <v>118</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f>MIN($B7,E$13)+D8</f>
         <v>116</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B8" s="2">
@@ -976,32 +1003,32 @@
         <v>99</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
-        <f>A10+1</f>
+        <f t="shared" ref="A9:A10" si="11">A10+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>78</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C11" si="10">MAX(D10:M10)</f>
+        <f t="shared" ref="C9:C11" si="12">MAX(D10:M10)</f>
         <v>38</v>
       </c>
       <c r="D9" s="4">
@@ -1019,14 +1046,14 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
-        <f>A11+1</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="D10" s="3">
@@ -1046,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D11" s="4">
@@ -1184,7 +1211,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="C1" s="1">
-        <f t="shared" ref="C1:C8" si="11">MAX(D2:M2)</f>
+        <f t="shared" ref="C1:C8" si="13">MAX(D2:M2)</f>
         <v>523</v>
       </c>
     </row>
@@ -1196,43 +1223,43 @@
         <v>65</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>464</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D8" si="12">MIN($B2,D$13)+C3</f>
+        <f t="shared" ref="D2:D8" si="14">MIN($B2,D$13)+C3</f>
         <v>481</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E8" si="13">MIN($B2,E$13)+D3</f>
+        <f t="shared" ref="E2:E8" si="15">MIN($B2,E$13)+D3</f>
         <v>469</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F8" si="14">MIN($B2,F$13)+E3</f>
+        <f t="shared" ref="F2:F8" si="16">MIN($B2,F$13)+E3</f>
         <v>520</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G8" si="15">MIN($B2,G$13)+F3</f>
+        <f t="shared" ref="G2:G8" si="17">MIN($B2,G$13)+F3</f>
         <v>523</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H7" si="16">MIN($B2,H$13)+G3</f>
+        <f t="shared" ref="H2:H7" si="18">MIN($B2,H$13)+G3</f>
         <v>490</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I6" si="17">MIN($B2,I$13)+H3</f>
+        <f t="shared" ref="I2:I6" si="19">MIN($B2,I$13)+H3</f>
         <v>501</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J5" si="18">MIN($B2,J$13)+I3</f>
+        <f t="shared" ref="J2:J5" si="20">MIN($B2,J$13)+I3</f>
         <v>452</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K4" si="19">MIN($B2,K$13)+J3</f>
+        <f t="shared" ref="K2:K4" si="21">MIN($B2,K$13)+J3</f>
         <v>391</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L3" si="20">MIN($B2,L$13)+K3</f>
+        <f t="shared" ref="L2:L3" si="22">MIN($B2,L$13)+K3</f>
         <v>369</v>
       </c>
       <c r="M2" s="3">
@@ -1248,43 +1275,43 @@
         <v>48</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>416</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>404</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>455</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>458</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>426</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>464</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>429</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>369</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>347</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
     </row>
@@ -1296,39 +1323,39 @@
         <v>77</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>356</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>407</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>378</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>416</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>392</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>346</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>325</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>378</v>
       </c>
     </row>
@@ -1340,35 +1367,35 @@
         <v>44</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>333</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>341</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>313</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>351</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>328</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>309</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>302</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>356</v>
       </c>
     </row>
@@ -1380,31 +1407,31 @@
         <v>36</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>297</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>269</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>307</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>284</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>265</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>265</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>333</v>
       </c>
     </row>
@@ -1416,27 +1443,27 @@
         <v>78</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>233</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>271</v>
       </c>
       <c r="E7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>248</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>229</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>229</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>297</v>
       </c>
     </row>
@@ -1448,23 +1475,23 @@
         <v>36</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>197</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>179</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>164</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>233</v>
       </c>
     </row>
@@ -1476,7 +1503,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C11" si="21">MAX(D10:M10)</f>
+        <f t="shared" ref="C9:C11" si="23">MAX(D10:M10)</f>
         <v>143</v>
       </c>
       <c r="D9" s="3">
@@ -1500,7 +1527,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>74</v>
       </c>
       <c r="D10" s="3">
@@ -1520,7 +1547,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D11" s="4">
@@ -1659,4 +1686,403 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="4" max="10" width="5.7109375"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="24.203125"/>
+    <col customWidth="1" min="12" max="12" width="3.8515625"/>
+    <col customWidth="1" min="13" max="14" width="5.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <f>MAX(D8:N8)</f>
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <f>A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <f>MAX(D9:N9)</f>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <f>MIN($B8,D$13)+C9</f>
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <f>MIN($B8,E$13)+D9</f>
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <f>MIN($B8,F$13)+E9</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <f>MIN($B8,G$13)+F9</f>
+        <v>8</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8">
+        <f>B11</f>
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <f>B10</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>B9</f>
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <f>B8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <f>A10+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>MAX(D10:N10)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <f>MIN($B9,D$13)+C10</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <f>MIN($B9,E$13)+D10</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
+        <f>MIN($B9,F$13)+E10</f>
+        <v>7</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9">
+        <f>D13</f>
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <f>E13</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>F13</f>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>G13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <f>A11+1</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <f>MAX(D11:N11)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <f>MIN($B10,D$13)+C11</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <f>MIN($B10,E$13)+D11</f>
+        <v>6</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>M13</f>
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f>IF(N11&gt;1,N12+M10,N13+L10)</f>
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <f>IF(O11&gt;1,O12+N10,O13+M10)</f>
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <f>IF(P11&gt;1,P12+O10,P13+N10)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>MAX(D12:N12)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <f>MIN($B11,D$13)+C13</f>
+        <v>5</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>IF(M10+N12&gt;L10+N13,M11+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="3">
+        <f>IF(N10+O12&gt;M10+O13,N11+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <f>IF(O10+P12&gt;N10+P13,O11+1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="3">
+        <f>M13</f>
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
+        <f>MIN(N8,INDEX($M$9:$P$9,M11+1))</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <f>MIN(O8,INDEX($M$9:$P$9,N11+1))</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <f>MIN(P8,INDEX($M$9:$P$9,O11+1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13"/>
+      <c r="K13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="3">
+        <f>MIN(M8,INDEX($M$9:$P$9,1))</f>
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <f>MIN(N8,INDEX($M$9:$P$9,1))</f>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f>MIN(O8,INDEX($M$9:$P$9,1))</f>
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <f>MIN(P8,INDEX($M$9:$P$9,1))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14+1</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f>E14+1</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14+1</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tp2/informe/pruebas.xlsx
+++ b/tp2/informe/pruebas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>4+1</t>
   </si>
@@ -48,10 +48,16 @@
     <t>dias_trabajo_continuo</t>
   </si>
   <si>
+    <t>i↑</t>
+  </si>
+  <si>
     <t>ganancia_trabajo_continuo</t>
   </si>
   <si>
     <t>ganancia_renovado</t>
+  </si>
+  <si>
+    <t>i→</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
@@ -140,8 +146,36 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -1697,7 +1731,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="4" max="10" width="5.7109375"/>
+    <col customWidth="1" min="1" max="7" width="4.7109375"/>
+    <col customWidth="1" min="8" max="10" width="5.7109375"/>
     <col bestFit="1" customWidth="1" min="11" max="11" width="24.203125"/>
     <col customWidth="1" min="12" max="12" width="3.8515625"/>
     <col customWidth="1" min="13" max="14" width="5.7109375"/>
@@ -1771,55 +1806,56 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <f>MAX(D8:N8)</f>
-        <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3"/>
       <c r="I7"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8">
+      <c r="A8" s="9">
         <f>A9+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="11">
         <f>MAX(D9:N9)</f>
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12">
         <f>MIN($B8,D$13)+C9</f>
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13">
         <f>MIN($B8,E$13)+D9</f>
-        <v>14</v>
-      </c>
-      <c r="F8" s="3">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12">
         <f>MIN($B8,F$13)+E9</f>
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12">
         <f>MIN($B8,G$13)+F9</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="14"/>
       <c r="M8">
         <f>B11</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <f>B10</f>
@@ -1835,47 +1871,47 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9">
+      <c r="A9" s="9">
         <f>A10+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="11">
         <f>MAX(D10:N10)</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
         <f>MIN($B9,D$13)+C10</f>
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
         <f>MIN($B9,E$13)+D10</f>
-        <v>9</v>
-      </c>
-      <c r="F9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12">
         <f>MIN($B9,F$13)+E10</f>
-        <v>7</v>
-      </c>
-      <c r="G9"/>
+        <v>15</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="14"/>
       <c r="M9">
         <f>D13</f>
         <v>10</v>
       </c>
       <c r="N9">
         <f>E13</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O9">
         <f>F13</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P9">
         <f>G13</f>
@@ -1883,76 +1919,75 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10">
+      <c r="A10" s="9">
         <f>A11+1</f>
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <f>MAX(D11:N11)</f>
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
         <f>MIN($B10,D$13)+C11</f>
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
         <f>MIN($B10,E$13)+D11</f>
-        <v>6</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="K10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="14">
         <v>0</v>
       </c>
       <c r="M10">
         <f>M13</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <f>IF(N11&gt;1,N12+M10,N13+L10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10">
         <f>IF(O11&gt;1,O12+N10,O13+M10)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P10">
         <f>IF(P11&gt;1,P12+O10,P13+N10)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <f>MAX(D12:N12)</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
         <f>MIN($B11,D$13)+C13</f>
-        <v>5</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="14"/>
       <c r="M11">
         <v>1</v>
       </c>
@@ -1962,7 +1997,7 @@
       </c>
       <c r="O11" s="3">
         <f>IF(N10+O12&gt;M10+O13,N11+1,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" s="3">
         <f>IF(O10+P12&gt;N10+P13,O11+1,1)</f>
@@ -1970,31 +2005,35 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="K12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="17"/>
       <c r="M12" s="3">
         <f>M13</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <f>MIN(N8,INDEX($M$9:$P$9,M11+1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
         <f>MIN(O8,INDEX($M$9:$P$9,N11+1))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P12" s="3">
         <f>MIN(P8,INDEX($M$9:$P$9,O11+1))</f>
@@ -2002,33 +2041,35 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10">
         <v>1</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13"/>
-      <c r="K13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="11"/>
+      <c r="K13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="19"/>
       <c r="M13" s="3">
         <f>MIN(M8,INDEX($M$9:$P$9,1))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f>MIN(N8,INDEX($M$9:$P$9,1))</f>
@@ -2044,22 +2085,23 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <f>D14+1</f>
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="12">
         <f>E14+1</f>
         <v>2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="12">
         <f>F14+1</f>
         <v>3</v>
       </c>

--- a/tp2/informe/pruebas.xlsx
+++ b/tp2/informe/pruebas.xlsx
@@ -57,7 +57,7 @@
     <t>ganancia_renovado</t>
   </si>
   <si>
-    <t>i→</t>
+    <t>j→</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
@@ -141,9 +141,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -163,22 +160,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +997,7 @@
         <v>158</v>
       </c>
       <c r="E7">
-        <f>MIN($B7,E$13)+D8</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="F7" s="3">
@@ -1725,7 +1714,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1738,13 +1727,8 @@
     <col customWidth="1" min="13" max="14" width="5.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="14.25">
-      <c r="B2"/>
-      <c r="C2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1758,8 +1742,6 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3"/>
-      <c r="C3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1772,8 +1754,6 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4"/>
-      <c r="C4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1782,11 +1762,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5"/>
-      <c r="C5"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1796,8 +1774,6 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6"/>
-      <c r="C6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1806,53 +1782,50 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
-        <f>MAX(D8:N8)</f>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
+        <f t="shared" ref="C7:C8" si="24">MAX(D8:N8)</f>
         <v>22</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="3"/>
-      <c r="I7"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f>A9+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
-        <f>MAX(D9:N9)</f>
+      <c r="C8" s="10">
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f>MIN($B8,D$13)+C9</f>
         <v>17</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f>MIN($B8,E$13)+D9</f>
         <v>22</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>MIN($B8,F$13)+E9</f>
         <v>21</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>MIN($B8,G$13)+F9</f>
         <v>16</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
       <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="5"/>
       <c r="M8">
         <f>B11</f>
         <v>4</v>
@@ -1871,36 +1844,34 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9">
-        <f>A10+1</f>
+      <c r="A9" s="8">
+        <f t="shared" ref="A9:A10" si="25">A10+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
-        <f>MAX(D10:N10)</f>
+      <c r="C9" s="10">
+        <f t="shared" ref="C9:C10" si="26">MAX(D10:N10)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>MIN($B9,D$13)+C10</f>
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f>MIN($B9,E$13)+D10</f>
         <v>11</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>MIN($B9,F$13)+E10</f>
         <v>15</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="G9" s="8"/>
       <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="5"/>
       <c r="M9">
         <f>D13</f>
         <v>10</v>
@@ -1919,33 +1890,31 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="9">
-        <f>A11+1</f>
+      <c r="A10" s="8">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
-        <f>MAX(D11:N11)</f>
+      <c r="C10" s="10">
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f>MIN($B10,D$13)+C11</f>
         <v>3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f>MIN($B10,E$13)+D11</f>
         <v>7</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="K10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="M10">
@@ -1966,28 +1935,26 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>0</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>MIN($B11,D$13)+C13</f>
         <v>4</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="5"/>
       <c r="M11">
         <v>1</v>
       </c>
@@ -2005,24 +1972,24 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3">
         <f>M13</f>
         <v>4</v>
@@ -2041,32 +2008,31 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>10</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <v>10</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>1</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13"/>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3">
         <f>MIN(M8,INDEX($M$9:$P$9,1))</f>
         <v>4</v>
@@ -2085,23 +2051,23 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f>D14+1</f>
         <v>1</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f>E14+1</f>
         <v>2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f>F14+1</f>
         <v>3</v>
       </c>
@@ -2116,8 +2082,18 @@
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
-    <row r="19" ht="14.25"/>
+    <row r="18" ht="14.25">
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
     <row r="20" ht="14.25"/>
     <row r="21" ht="14.25"/>
     <row r="22" ht="14.25"/>
